--- a/exercice3.xlsx
+++ b/exercice3.xlsx
@@ -631,9 +631,7 @@
           <t>Bénéfice optimal</t>
         </is>
       </c>
-      <c r="B1" t="n">
-        <v>13096</v>
-      </c>
+      <c r="B1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -678,36 +676,6 @@
           <t>Type 1</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -715,36 +683,6 @@
           <t>Type 2</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -752,36 +690,6 @@
           <t>Type 3</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>32</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -789,36 +697,6 @@
           <t>Type 4</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>17</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -826,36 +704,6 @@
           <t>Type 5</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -863,36 +711,6 @@
           <t>Type 6</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>13</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -900,36 +718,6 @@
           <t>Type 7</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -937,36 +725,6 @@
           <t>Type 8</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -974,72 +732,12 @@
           <t>Type 9</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>13</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
           <t>Type 10</t>
         </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>13</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
